--- a/sample.xlsx
+++ b/sample.xlsx
@@ -160,10 +160,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
